--- a/UVCl2 photolysis in sheets.xlsx
+++ b/UVCl2 photolysis in sheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mounir\Desktop\Thèse\Toronto 2024\modelisation\modularized merged model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D42797-AC05-4676-B99C-457D99E8E366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE5F08F-D3A7-4973-98C6-F0707188B4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="829" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="829" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="week1" sheetId="1" r:id="rId1"/>
@@ -13397,1248 +13397,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-23E2-4D3F-B3A1-60067B2E5251}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="821626799"/>
-        <c:axId val="821627759"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="821626799"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>time (minute)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="821627759"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="821627759"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Cl2free</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> C/C0</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="821626799"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>dioxane decay</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> in UV-Cl2 Reox</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="exp"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>week7reox!$A$2:$A$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.66</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.33</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.76</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.66</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.33</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.76</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.66</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.33</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.76</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.66</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.33</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.76</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.66</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.76</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.66</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.33</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.76</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>week7reox!$N$2:$N$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.93743458541690894</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.93615536690312828</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.90464007442725913</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8664961041981627</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.80881497848587047</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.79113850447726486</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0221335268505081</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.97786647314949182</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.91569908079342022</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.9068698597000483</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.93529269472665688</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.8172472181906143</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.0085048687292</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.93035868359423157</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.0255146061876002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.0194749168001971</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.78836435350671763</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.0587945273018613</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.0088283378746594</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.94626702997275192</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.8214713896457766</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.95444141689373285</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.94615803814713895</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.83378746594005448</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.95353136940712446</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.0012325896708987</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.023049426845803</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.9797855293972636</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.0247750523850612</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.92974238875878235</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.91934604904632145</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.90931880108991836</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.87967302452316065</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.9502997275204359</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.83749318801089923</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.86681198910081747</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.82212534059945508</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BA9E-4153-8955-3D13D0B1F87D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="550346031"/>
-        <c:axId val="550354191"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="550346031"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>time</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (minutes)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="550354191"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="550354191"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>dioxane C/C0</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="550346031"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Cl2free C/C0 in UV-Cl2 Reox</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>week7reox!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cl2free C/C0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="exp"/>
-            <c:intercept val="1"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>week7reox!$A$2:$A$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.66</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.33</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.76</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.66</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.33</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.76</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.66</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.33</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.76</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>week7reox!$I$2:$I$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.93258426966292118</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.83707865168539319</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.7696629213483146</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.70224719101123589</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.63483146067415719</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.5786516853932584</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.92941176470588238</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.80588235294117649</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.75294117647058822</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.70588235294117652</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.60588235294117654</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.55294117647058816</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4856-4DCC-8926-F3F181994584}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -18734,86 +17492,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors33.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors34.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -32470,1038 +31148,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style33.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style34.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -36734,87 +34380,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A57545FF-75AE-426D-9FA2-49D512AD1AB2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>455840</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>153759</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>398691</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>1360</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB8840A6-46F6-46E7-899E-BCB3E26BF75F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>477613</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>80960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>537485</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>129267</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6DB6C4B-ED39-43F2-8B17-F3284CA49304}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -38196,20 +35761,20 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" customWidth="1"/>
-    <col min="2" max="2" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -38241,7 +35806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -38274,7 +35839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -38306,7 +35871,7 @@
         <v>1.2992509363295881</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20</v>
       </c>
@@ -38338,7 +35903,7 @@
         <v>1.0671887413460448</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>35</v>
       </c>
@@ -38373,7 +35938,7 @@
         <v>0.99557371467483824</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -38406,7 +35971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -38438,7 +36003,7 @@
         <v>1.3357167177391895</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20</v>
       </c>
@@ -38470,7 +36035,7 @@
         <v>1.2594484167517874</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>35</v>
       </c>
@@ -38516,25 +36081,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A427FAB-FD05-47B5-8355-DB96CEFC4246}">
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:R1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" customWidth="1"/>
-    <col min="13" max="13" width="20.6640625" customWidth="1"/>
-    <col min="14" max="14" width="14.88671875" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" customWidth="1"/>
+    <col min="15" max="15" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -38590,7 +36159,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -38631,7 +36200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.43</v>
       </c>
@@ -38672,7 +36241,7 @@
         <v>0.88391149959027593</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.66</v>
       </c>
@@ -38713,7 +36282,7 @@
         <v>0.60202130565419287</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -38754,7 +36323,7 @@
         <v>0.3430756623873259</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1.33</v>
       </c>
@@ -38795,7 +36364,7 @@
         <v>0.24911226440863152</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1.76</v>
       </c>
@@ -38836,7 +36405,7 @@
         <v>0.11881999453701174</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -38877,7 +36446,7 @@
         <v>0.11772739688609668</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -38907,7 +36476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.43</v>
       </c>
@@ -38937,7 +36506,7 @@
         <v>0.94541231126596992</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.66</v>
       </c>
@@ -38967,7 +36536,7 @@
         <v>0.63095238095238104</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -38997,7 +36566,7 @@
         <v>0.33594657375145182</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1.33</v>
       </c>
@@ -39027,7 +36596,7 @@
         <v>0.21893147502903601</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1.76</v>
       </c>
@@ -39057,7 +36626,7 @@
         <v>0.13037166085946575</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -39087,7 +36656,7 @@
         <v>0.11585365853658539</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -39128,7 +36697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.43</v>
       </c>
@@ -39169,7 +36738,7 @@
         <v>0.65892628887942051</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.66</v>
       </c>
@@ -39210,7 +36779,7 @@
         <v>0.41435875585854282</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -39251,7 +36820,7 @@
         <v>0.26949296974861525</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1.33</v>
       </c>
@@ -39292,7 +36861,7 @@
         <v>0.14358755858542821</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1.76</v>
       </c>
@@ -39333,7 +36902,7 @@
         <v>0.10801022582019601</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -39374,7 +36943,7 @@
         <v>8.2871751171708571E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -39404,7 +36973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.43</v>
       </c>
@@ -39434,7 +37003,7 @@
         <v>0.69186580882352933</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.66</v>
       </c>
@@ -39464,7 +37033,7 @@
         <v>0.53952205882352944</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -39494,7 +37063,7 @@
         <v>0.3334099264705882</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1.33</v>
       </c>
@@ -39524,7 +37093,7 @@
         <v>0.16429227941176469</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1.76</v>
       </c>
@@ -39554,7 +37123,7 @@
         <v>0.12155330882352941</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -39595,28 +37164,28 @@
   <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="23.33203125" customWidth="1"/>
-    <col min="13" max="13" width="26.5546875" customWidth="1"/>
-    <col min="14" max="14" width="14.88671875" customWidth="1"/>
-    <col min="15" max="15" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" customWidth="1"/>
+    <col min="13" max="13" width="26.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" customWidth="1"/>
+    <col min="15" max="15" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -39672,7 +37241,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -39719,7 +37288,7 @@
         <v>714791.22088284697</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.43</v>
       </c>
@@ -39766,7 +37335,7 @@
         <v>126444.952215135</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.66</v>
       </c>
@@ -39813,7 +37382,7 @@
         <v>21505.167902391899</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -39860,7 +37429,7 @@
         <v>3611.8262302881399</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1.33</v>
       </c>
@@ -39907,7 +37476,7 @@
         <v>3336.8696379295602</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1.76</v>
       </c>
@@ -39954,7 +37523,7 @@
         <v>1343.91331868561</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -40001,7 +37570,7 @@
         <v>1353.5618805767899</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -40041,7 +37610,7 @@
         <v>492172.70205436699</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.43</v>
       </c>
@@ -40081,7 +37650,7 @@
         <v>128644.978809899</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.66</v>
       </c>
@@ -40121,7 +37690,7 @@
         <v>21362.241668107501</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -40161,7 +37730,7 @@
         <v>1927.6935303282401</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1.33</v>
       </c>
@@ -40201,7 +37770,7 @@
         <v>3066.8529643768902</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1.76</v>
       </c>
@@ -40241,7 +37810,7 @@
         <v>1406.28446038281</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -40281,7 +37850,7 @@
         <v>3201.14368956832</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -40336,7 +37905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.43</v>
       </c>
@@ -40391,7 +37960,7 @@
         <v>0.19819384745219323</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.66</v>
       </c>
@@ -40446,7 +38015,7 @@
         <v>2.8653155229425416E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -40501,7 +38070,7 @@
         <v>6.503783054789527E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1.33</v>
       </c>
@@ -40556,7 +38125,7 @@
         <v>2.6506762268754961E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1.76</v>
       </c>
@@ -40609,7 +38178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -40662,7 +38231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -40710,7 +38279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.43</v>
       </c>
@@ -40758,7 +38327,7 @@
         <v>0.19518856180963753</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.66</v>
       </c>
@@ -40806,7 +38375,7 @@
         <v>2.8181263290687333E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -40854,7 +38423,7 @@
         <v>1.0645568326718169E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1.33</v>
       </c>
@@ -40902,7 +38471,7 @@
         <v>2.5522811868900286E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1.76</v>
       </c>
@@ -40943,7 +38512,7 @@
         <v>0.69066237350505977</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -40984,7 +38553,7 @@
         <v>0.65248390064397421</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0</v>
       </c>
@@ -41025,7 +38594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0.43</v>
       </c>
@@ -41066,7 +38635,7 @@
         <v>0.95353136940712446</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.66</v>
       </c>
@@ -41107,7 +38676,7 @@
         <v>1.0012325896708987</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -41148,7 +38717,7 @@
         <v>1.023049426845803</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1.33</v>
       </c>
@@ -41189,7 +38758,7 @@
         <v>0.9797855293972636</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1.76</v>
       </c>
@@ -41230,7 +38799,7 @@
         <v>1.0247750523850612</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2</v>
       </c>
@@ -41271,7 +38840,7 @@
         <v>0.92974238875878235</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0</v>
       </c>
@@ -41305,7 +38874,7 @@
         <v>0.91934604904632145</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0.43</v>
       </c>
@@ -41339,7 +38908,7 @@
         <v>0.90931880108991836</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0.66</v>
       </c>
@@ -41373,7 +38942,7 @@
         <v>0.87967302452316065</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -41407,7 +38976,7 @@
         <v>0.9502997275204359</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1.33</v>
       </c>
@@ -41441,7 +39010,7 @@
         <v>0.83749318801089923</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1.76</v>
       </c>
@@ -41475,7 +39044,7 @@
         <v>0.86681198910081747</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
@@ -41511,7 +39080,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -41523,28 +39091,28 @@
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" customWidth="1"/>
-    <col min="10" max="10" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5546875" customWidth="1"/>
-    <col min="13" max="13" width="22.109375" customWidth="1"/>
-    <col min="14" max="14" width="23.33203125" customWidth="1"/>
-    <col min="15" max="15" width="26.5546875" customWidth="1"/>
-    <col min="16" max="17" width="14.88671875" customWidth="1"/>
-    <col min="18" max="18" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.6640625" customWidth="1"/>
-    <col min="21" max="21" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" customWidth="1"/>
+    <col min="15" max="15" width="26.5703125" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" customWidth="1"/>
+    <col min="18" max="18" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" customWidth="1"/>
+    <col min="21" max="21" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -41612,7 +39180,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -41671,7 +39239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.5</v>
       </c>
@@ -41730,7 +39298,7 @@
         <v>0.98625404827735119</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -41789,7 +39357,7 @@
         <v>0.97556030139881034</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1.5</v>
       </c>
@@ -41848,7 +39416,7 @@
         <v>0.94958527113839331</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -41907,7 +39475,7 @@
         <v>0.9099169652852247</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2.5</v>
       </c>
@@ -41966,7 +39534,7 @@
         <v>0.91950648693630399</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -42025,79 +39593,79 @@
         <v>0.88140649516714287</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U9" s="3"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U10" s="3"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U11" s="3"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U12" s="3"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U13" s="3"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U14" s="3"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U15" s="3"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="R16" s="2"/>
       <c r="U16" s="3"/>
     </row>
-    <row r="17" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R17" s="2"/>
       <c r="U17" s="3"/>
     </row>
-    <row r="18" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R18" s="2"/>
       <c r="U18" s="3"/>
     </row>
-    <row r="19" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R19" s="2"/>
       <c r="U19" s="3"/>
     </row>
-    <row r="20" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R20" s="2"/>
       <c r="U20" s="3"/>
     </row>
-    <row r="21" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R21" s="2"/>
       <c r="U21" s="3"/>
     </row>
-    <row r="22" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R22" s="2"/>
       <c r="U22" s="3"/>
     </row>
-    <row r="23" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R23" s="2"/>
       <c r="U23" s="3"/>
     </row>
-    <row r="24" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R24" s="2"/>
       <c r="U24" s="3"/>
     </row>
-    <row r="25" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R25" s="2"/>
       <c r="U25" s="3"/>
     </row>
-    <row r="26" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R26" s="2"/>
       <c r="U26" s="3"/>
     </row>
-    <row r="27" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R27" s="2"/>
       <c r="U27" s="3"/>
     </row>
-    <row r="28" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R28" s="2"/>
     </row>
-    <row r="29" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R29" s="2"/>
     </row>
   </sheetData>
@@ -42113,28 +39681,28 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" customWidth="1"/>
-    <col min="10" max="10" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5546875" customWidth="1"/>
-    <col min="13" max="13" width="22.109375" customWidth="1"/>
-    <col min="14" max="14" width="23.33203125" customWidth="1"/>
-    <col min="15" max="15" width="26.5546875" customWidth="1"/>
-    <col min="16" max="17" width="14.88671875" customWidth="1"/>
-    <col min="18" max="18" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.6640625" customWidth="1"/>
-    <col min="21" max="21" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" customWidth="1"/>
+    <col min="15" max="15" width="26.5703125" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" customWidth="1"/>
+    <col min="18" max="18" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" customWidth="1"/>
+    <col min="21" max="21" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -42202,7 +39770,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -42272,7 +39840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.5</v>
       </c>
@@ -42342,7 +39910,7 @@
         <v>0.46109745184494327</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -42412,7 +39980,7 @@
         <v>0.26720620683841634</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1.5</v>
       </c>
@@ -42482,7 +40050,7 @@
         <v>0.19037479040634095</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -42552,7 +40120,7 @@
         <v>0.1483913790747651</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2.5</v>
       </c>
@@ -42622,7 +40190,7 @@
         <v>0.12791111425001503</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -42692,123 +40260,123 @@
         <v>0.11758656254614534</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N11" s="4"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N12" s="4"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N13" s="4"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N14" s="4"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N15" s="4"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N16" s="4"/>
       <c r="R16" s="2"/>
     </row>
-    <row r="17" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N17" s="4"/>
       <c r="R17" s="2"/>
     </row>
-    <row r="18" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N18" s="4"/>
       <c r="R18" s="2"/>
     </row>
-    <row r="19" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N19" s="4"/>
       <c r="R19" s="2"/>
     </row>
-    <row r="20" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N20" s="4"/>
       <c r="R20" s="2"/>
     </row>
-    <row r="21" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N21" s="4"/>
       <c r="R21" s="2"/>
     </row>
-    <row r="22" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N22" s="4"/>
       <c r="R22" s="2"/>
     </row>
-    <row r="23" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N23" s="4"/>
       <c r="R23" s="2"/>
     </row>
-    <row r="24" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N24" s="4"/>
       <c r="R24" s="2"/>
     </row>
-    <row r="25" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N25" s="4"/>
       <c r="R25" s="2"/>
     </row>
-    <row r="26" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N26" s="4"/>
       <c r="R26" s="2"/>
     </row>
-    <row r="27" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N27" s="4"/>
       <c r="R27" s="2"/>
     </row>
-    <row r="28" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N28" s="4"/>
       <c r="R28" s="2"/>
     </row>
-    <row r="29" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N29" s="4"/>
       <c r="R29" s="2"/>
     </row>
-    <row r="30" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N30" s="4"/>
     </row>
-    <row r="31" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N32" s="4"/>
     </row>
-    <row r="33" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N33" s="4"/>
     </row>
-    <row r="34" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N34" s="4"/>
     </row>
-    <row r="35" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N35" s="4"/>
     </row>
-    <row r="36" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N36" s="4"/>
     </row>
-    <row r="37" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N37" s="4"/>
     </row>
-    <row r="38" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N38" s="4"/>
     </row>
-    <row r="39" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N39" s="4"/>
     </row>
-    <row r="40" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N40" s="4"/>
     </row>
-    <row r="41" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N41" s="4"/>
     </row>
-    <row r="42" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N42" s="4"/>
     </row>
-    <row r="43" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N43" s="4"/>
     </row>
   </sheetData>
@@ -42824,28 +40392,28 @@
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" customWidth="1"/>
-    <col min="10" max="10" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5546875" customWidth="1"/>
-    <col min="13" max="13" width="22.109375" customWidth="1"/>
-    <col min="14" max="14" width="23.33203125" customWidth="1"/>
-    <col min="15" max="15" width="26.5546875" customWidth="1"/>
-    <col min="16" max="17" width="14.88671875" customWidth="1"/>
-    <col min="18" max="18" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.6640625" customWidth="1"/>
-    <col min="21" max="21" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" customWidth="1"/>
+    <col min="15" max="15" width="26.5703125" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" customWidth="1"/>
+    <col min="18" max="18" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" customWidth="1"/>
+    <col min="21" max="21" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -42913,7 +40481,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -42983,7 +40551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.5</v>
       </c>
@@ -43053,7 +40621,7 @@
         <v>0.38555178322697786</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -43123,7 +40691,7 @@
         <v>0.146896634008332</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1.5</v>
       </c>
@@ -43193,7 +40761,7 @@
         <v>5.3370933873271909E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -43263,7 +40831,7 @@
         <v>1.919649474343884E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2.5</v>
       </c>
@@ -43333,7 +40901,7 @@
         <v>6.2776927396995781E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -43403,142 +40971,142 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N9" s="4"/>
       <c r="U9" s="3"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N10" s="4"/>
       <c r="U10" s="3"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N11" s="4"/>
       <c r="U11" s="3"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N12" s="4"/>
       <c r="U12" s="3"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N13" s="4"/>
       <c r="U13" s="3"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N14" s="4"/>
       <c r="U14" s="3"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N15" s="4"/>
       <c r="U15" s="3"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N16" s="4"/>
       <c r="R16" s="2"/>
       <c r="U16" s="3"/>
     </row>
-    <row r="17" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N17" s="4"/>
       <c r="R17" s="2"/>
       <c r="U17" s="3"/>
     </row>
-    <row r="18" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N18" s="4"/>
       <c r="R18" s="2"/>
       <c r="U18" s="3"/>
     </row>
-    <row r="19" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N19" s="4"/>
       <c r="R19" s="2"/>
       <c r="U19" s="3"/>
     </row>
-    <row r="20" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N20" s="4"/>
       <c r="R20" s="2"/>
       <c r="U20" s="3"/>
     </row>
-    <row r="21" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N21" s="4"/>
       <c r="R21" s="2"/>
       <c r="U21" s="3"/>
     </row>
-    <row r="22" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N22" s="4"/>
       <c r="R22" s="2"/>
       <c r="U22" s="3"/>
     </row>
-    <row r="23" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N23" s="4"/>
       <c r="R23" s="2"/>
       <c r="U23" s="3"/>
     </row>
-    <row r="24" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N24" s="4"/>
       <c r="R24" s="2"/>
       <c r="U24" s="3"/>
     </row>
-    <row r="25" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N25" s="4"/>
       <c r="R25" s="2"/>
       <c r="U25" s="3"/>
     </row>
-    <row r="26" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N26" s="4"/>
       <c r="R26" s="2"/>
       <c r="U26" s="3"/>
     </row>
-    <row r="27" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N27" s="4"/>
       <c r="R27" s="2"/>
       <c r="U27" s="3"/>
     </row>
-    <row r="28" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N28" s="4"/>
       <c r="R28" s="2"/>
     </row>
-    <row r="29" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N29" s="4"/>
       <c r="R29" s="2"/>
     </row>
-    <row r="30" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N30" s="4"/>
     </row>
-    <row r="31" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N32" s="4"/>
     </row>
-    <row r="33" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N33" s="4"/>
     </row>
-    <row r="34" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N34" s="4"/>
     </row>
-    <row r="35" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N35" s="4"/>
     </row>
-    <row r="36" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N36" s="4"/>
     </row>
-    <row r="37" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N37" s="4"/>
     </row>
-    <row r="38" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N38" s="4"/>
     </row>
-    <row r="39" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N39" s="4"/>
     </row>
-    <row r="40" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N40" s="4"/>
     </row>
-    <row r="41" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N41" s="4"/>
     </row>
-    <row r="42" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N42" s="4"/>
     </row>
-    <row r="43" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N43" s="4"/>
     </row>
   </sheetData>
@@ -43554,28 +41122,28 @@
       <selection activeCell="A9" sqref="A9:V43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" customWidth="1"/>
-    <col min="10" max="10" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5546875" customWidth="1"/>
-    <col min="13" max="13" width="22.109375" customWidth="1"/>
-    <col min="14" max="14" width="23.33203125" customWidth="1"/>
-    <col min="15" max="15" width="26.5546875" customWidth="1"/>
-    <col min="16" max="17" width="14.88671875" customWidth="1"/>
-    <col min="18" max="18" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.6640625" customWidth="1"/>
-    <col min="21" max="21" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" customWidth="1"/>
+    <col min="15" max="15" width="26.5703125" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" customWidth="1"/>
+    <col min="18" max="18" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" customWidth="1"/>
+    <col min="21" max="21" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -43643,7 +41211,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -43713,7 +41281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.5</v>
       </c>
@@ -43783,7 +41351,7 @@
         <v>0.29413138151765222</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -43853,7 +41421,7 @@
         <v>6.905252890606732E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1.5</v>
       </c>
@@ -43923,7 +41491,7 @@
         <v>1.2538696141483363E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -43993,7 +41561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2.5</v>
       </c>
@@ -44063,7 +41631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -44133,109 +41701,109 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N11" s="4"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N12" s="4"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N13" s="4"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N14" s="4"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N15" s="4"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N16" s="4"/>
     </row>
-    <row r="17" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N17" s="4"/>
     </row>
-    <row r="18" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N18" s="4"/>
     </row>
-    <row r="19" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N19" s="4"/>
     </row>
-    <row r="20" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N20" s="4"/>
     </row>
-    <row r="21" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N21" s="4"/>
     </row>
-    <row r="22" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N22" s="4"/>
     </row>
-    <row r="23" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N23" s="4"/>
     </row>
-    <row r="24" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N24" s="4"/>
     </row>
-    <row r="25" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N25" s="4"/>
     </row>
-    <row r="26" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N26" s="4"/>
     </row>
-    <row r="27" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N27" s="4"/>
     </row>
-    <row r="28" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N28" s="4"/>
     </row>
-    <row r="29" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N29" s="4"/>
     </row>
-    <row r="30" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N30" s="4"/>
     </row>
-    <row r="31" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N32" s="4"/>
     </row>
-    <row r="33" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N33" s="4"/>
     </row>
-    <row r="34" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N34" s="4"/>
     </row>
-    <row r="35" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N35" s="4"/>
     </row>
-    <row r="36" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N36" s="4"/>
     </row>
-    <row r="37" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N37" s="4"/>
     </row>
-    <row r="38" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N38" s="4"/>
     </row>
-    <row r="39" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N39" s="4"/>
     </row>
-    <row r="40" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N40" s="4"/>
     </row>
-    <row r="41" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N41" s="4"/>
     </row>
-    <row r="42" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N42" s="4"/>
     </row>
-    <row r="43" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N43" s="4"/>
     </row>
   </sheetData>
@@ -44251,28 +41819,28 @@
       <selection activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" customWidth="1"/>
-    <col min="10" max="10" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5546875" customWidth="1"/>
-    <col min="13" max="13" width="22.109375" customWidth="1"/>
-    <col min="14" max="14" width="23.33203125" customWidth="1"/>
-    <col min="15" max="15" width="26.5546875" customWidth="1"/>
-    <col min="16" max="17" width="14.88671875" customWidth="1"/>
-    <col min="18" max="18" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.6640625" customWidth="1"/>
-    <col min="21" max="21" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" customWidth="1"/>
+    <col min="15" max="15" width="26.5703125" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" customWidth="1"/>
+    <col min="18" max="18" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" customWidth="1"/>
+    <col min="21" max="21" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -44340,7 +41908,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -44400,7 +41968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.5</v>
       </c>
@@ -44461,7 +42029,7 @@
       </c>
       <c r="U3" s="3"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -44522,7 +42090,7 @@
       </c>
       <c r="U4" s="3"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1.5</v>
       </c>
@@ -44583,7 +42151,7 @@
       </c>
       <c r="U5" s="3"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -44644,7 +42212,7 @@
       </c>
       <c r="U6" s="3"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2.5</v>
       </c>
@@ -44705,7 +42273,7 @@
       </c>
       <c r="U7" s="3"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -44766,79 +42334,79 @@
       </c>
       <c r="U8" s="3"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U9" s="3"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U10" s="3"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U11" s="3"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U12" s="3"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U13" s="3"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U14" s="3"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U15" s="3"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="R16" s="2"/>
       <c r="U16" s="3"/>
     </row>
-    <row r="17" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R17" s="2"/>
       <c r="U17" s="3"/>
     </row>
-    <row r="18" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R18" s="2"/>
       <c r="U18" s="3"/>
     </row>
-    <row r="19" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R19" s="2"/>
       <c r="U19" s="3"/>
     </row>
-    <row r="20" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R20" s="2"/>
       <c r="U20" s="3"/>
     </row>
-    <row r="21" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R21" s="2"/>
       <c r="U21" s="3"/>
     </row>
-    <row r="22" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R22" s="2"/>
       <c r="U22" s="3"/>
     </row>
-    <row r="23" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R23" s="2"/>
       <c r="U23" s="3"/>
     </row>
-    <row r="24" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R24" s="2"/>
       <c r="U24" s="3"/>
     </row>
-    <row r="25" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R25" s="2"/>
       <c r="U25" s="3"/>
     </row>
-    <row r="26" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R26" s="2"/>
       <c r="U26" s="3"/>
     </row>
-    <row r="27" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R27" s="2"/>
       <c r="U27" s="3"/>
     </row>
-    <row r="28" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R28" s="2"/>
     </row>
-    <row r="29" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R29" s="2"/>
     </row>
   </sheetData>
@@ -44854,28 +42422,28 @@
       <selection activeCell="V9" sqref="C9:V49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" customWidth="1"/>
-    <col min="10" max="10" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5546875" customWidth="1"/>
-    <col min="13" max="13" width="22.109375" customWidth="1"/>
-    <col min="14" max="14" width="23.33203125" customWidth="1"/>
-    <col min="15" max="15" width="26.5546875" customWidth="1"/>
-    <col min="16" max="17" width="14.88671875" customWidth="1"/>
-    <col min="18" max="18" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.6640625" customWidth="1"/>
-    <col min="21" max="21" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" customWidth="1"/>
+    <col min="15" max="15" width="26.5703125" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" customWidth="1"/>
+    <col min="18" max="18" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" customWidth="1"/>
+    <col min="21" max="21" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -44943,7 +42511,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -45003,7 +42571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.5</v>
       </c>
@@ -45064,7 +42632,7 @@
       </c>
       <c r="U3" s="3"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -45125,7 +42693,7 @@
       </c>
       <c r="U4" s="3"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1.5</v>
       </c>
@@ -45186,7 +42754,7 @@
       </c>
       <c r="U5" s="3"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -45247,7 +42815,7 @@
       </c>
       <c r="U6" s="3"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2.5</v>
       </c>
@@ -45308,7 +42876,7 @@
       </c>
       <c r="U7" s="3"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -45369,142 +42937,142 @@
       </c>
       <c r="U8" s="3"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N9" s="4"/>
       <c r="U9" s="3"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N10" s="4"/>
       <c r="U10" s="3"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N11" s="4"/>
       <c r="U11" s="3"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N12" s="4"/>
       <c r="U12" s="3"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N13" s="4"/>
       <c r="U13" s="3"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N14" s="4"/>
       <c r="U14" s="3"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N15" s="4"/>
       <c r="U15" s="3"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N16" s="4"/>
       <c r="R16" s="2"/>
       <c r="U16" s="3"/>
     </row>
-    <row r="17" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N17" s="4"/>
       <c r="R17" s="2"/>
       <c r="U17" s="3"/>
     </row>
-    <row r="18" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N18" s="4"/>
       <c r="R18" s="2"/>
       <c r="U18" s="3"/>
     </row>
-    <row r="19" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N19" s="4"/>
       <c r="R19" s="2"/>
       <c r="U19" s="3"/>
     </row>
-    <row r="20" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N20" s="4"/>
       <c r="R20" s="2"/>
       <c r="U20" s="3"/>
     </row>
-    <row r="21" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N21" s="4"/>
       <c r="R21" s="2"/>
       <c r="U21" s="3"/>
     </row>
-    <row r="22" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N22" s="4"/>
       <c r="R22" s="2"/>
       <c r="U22" s="3"/>
     </row>
-    <row r="23" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N23" s="4"/>
       <c r="R23" s="2"/>
       <c r="U23" s="3"/>
     </row>
-    <row r="24" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N24" s="4"/>
       <c r="R24" s="2"/>
       <c r="U24" s="3"/>
     </row>
-    <row r="25" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N25" s="4"/>
       <c r="R25" s="2"/>
       <c r="U25" s="3"/>
     </row>
-    <row r="26" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N26" s="4"/>
       <c r="R26" s="2"/>
       <c r="U26" s="3"/>
     </row>
-    <row r="27" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N27" s="4"/>
       <c r="R27" s="2"/>
       <c r="U27" s="3"/>
     </row>
-    <row r="28" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N28" s="4"/>
       <c r="R28" s="2"/>
     </row>
-    <row r="29" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N29" s="4"/>
       <c r="R29" s="2"/>
     </row>
-    <row r="30" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N30" s="4"/>
     </row>
-    <row r="31" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N32" s="4"/>
     </row>
-    <row r="33" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N33" s="4"/>
     </row>
-    <row r="34" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N34" s="4"/>
     </row>
-    <row r="35" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N35" s="4"/>
     </row>
-    <row r="36" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N36" s="4"/>
     </row>
-    <row r="37" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N37" s="4"/>
     </row>
-    <row r="38" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N38" s="4"/>
     </row>
-    <row r="39" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N39" s="4"/>
     </row>
-    <row r="40" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N40" s="4"/>
     </row>
-    <row r="41" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N41" s="4"/>
     </row>
-    <row r="42" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N42" s="4"/>
     </row>
-    <row r="43" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N43" s="4"/>
     </row>
   </sheetData>
@@ -45520,28 +43088,28 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" customWidth="1"/>
-    <col min="10" max="10" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5546875" customWidth="1"/>
-    <col min="13" max="13" width="22.109375" customWidth="1"/>
-    <col min="14" max="14" width="23.33203125" customWidth="1"/>
-    <col min="15" max="15" width="26.5546875" customWidth="1"/>
-    <col min="16" max="17" width="14.88671875" customWidth="1"/>
-    <col min="18" max="18" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.6640625" customWidth="1"/>
-    <col min="21" max="21" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" customWidth="1"/>
+    <col min="15" max="15" width="26.5703125" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" customWidth="1"/>
+    <col min="18" max="18" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" customWidth="1"/>
+    <col min="21" max="21" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -45609,7 +43177,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -45674,7 +43242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -45736,7 +43304,7 @@
         <v>0.97101140360225946</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -45798,7 +43366,7 @@
         <v>0.93541511243738673</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -45860,7 +43428,7 @@
         <v>0.90067142704891834</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -45922,85 +43490,85 @@
         <v>0.88383246296493667</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U7" s="3"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U8" s="3"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U9" s="3"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U10" s="3"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U11" s="3"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U12" s="3"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U13" s="3"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U14" s="3"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U15" s="3"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="R16" s="2"/>
       <c r="U16" s="3"/>
     </row>
-    <row r="17" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R17" s="2"/>
       <c r="U17" s="3"/>
     </row>
-    <row r="18" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R18" s="2"/>
       <c r="U18" s="3"/>
     </row>
-    <row r="19" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R19" s="2"/>
       <c r="U19" s="3"/>
     </row>
-    <row r="20" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R20" s="2"/>
       <c r="U20" s="3"/>
     </row>
-    <row r="21" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R21" s="2"/>
       <c r="U21" s="3"/>
     </row>
-    <row r="22" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R22" s="2"/>
       <c r="U22" s="3"/>
     </row>
-    <row r="23" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R23" s="2"/>
       <c r="U23" s="3"/>
     </row>
-    <row r="24" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R24" s="2"/>
       <c r="U24" s="3"/>
     </row>
-    <row r="25" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R25" s="2"/>
       <c r="U25" s="3"/>
     </row>
-    <row r="26" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R26" s="2"/>
       <c r="U26" s="3"/>
     </row>
-    <row r="27" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R27" s="2"/>
       <c r="U27" s="3"/>
     </row>
-    <row r="28" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R28" s="2"/>
     </row>
-    <row r="29" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R29" s="2"/>
     </row>
   </sheetData>
@@ -46016,28 +43584,28 @@
       <selection activeCell="V8" sqref="A8:V115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" customWidth="1"/>
-    <col min="10" max="10" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5546875" customWidth="1"/>
-    <col min="13" max="13" width="22.109375" customWidth="1"/>
-    <col min="14" max="14" width="23.33203125" customWidth="1"/>
-    <col min="15" max="15" width="26.5546875" customWidth="1"/>
-    <col min="16" max="17" width="14.88671875" customWidth="1"/>
-    <col min="18" max="18" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.6640625" customWidth="1"/>
-    <col min="21" max="21" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" customWidth="1"/>
+    <col min="15" max="15" width="26.5703125" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" customWidth="1"/>
+    <col min="18" max="18" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" customWidth="1"/>
+    <col min="21" max="21" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -46105,7 +43673,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -46175,7 +43743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -46245,7 +43813,7 @@
         <v>0.24101213647813144</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -46315,7 +43883,7 @@
         <v>0.139569498511564</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -46385,7 +43953,7 @@
         <v>0.10808335241584612</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -46455,7 +44023,7 @@
         <v>8.4382871536523921E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -46525,126 +44093,126 @@
         <v>8.2665445385848399E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N8" s="4"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N11" s="4"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N12" s="4"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N13" s="4"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N14" s="4"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N15" s="4"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N16" s="4"/>
       <c r="R16" s="2"/>
     </row>
-    <row r="17" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N17" s="4"/>
       <c r="R17" s="2"/>
     </row>
-    <row r="18" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N18" s="4"/>
       <c r="R18" s="2"/>
     </row>
-    <row r="19" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N19" s="4"/>
       <c r="R19" s="2"/>
     </row>
-    <row r="20" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N20" s="4"/>
       <c r="R20" s="2"/>
     </row>
-    <row r="21" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N21" s="4"/>
       <c r="R21" s="2"/>
     </row>
-    <row r="22" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N22" s="4"/>
       <c r="R22" s="2"/>
     </row>
-    <row r="23" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N23" s="4"/>
       <c r="R23" s="2"/>
     </row>
-    <row r="24" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N24" s="4"/>
       <c r="R24" s="2"/>
     </row>
-    <row r="25" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N25" s="4"/>
       <c r="R25" s="2"/>
     </row>
-    <row r="26" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N26" s="4"/>
       <c r="R26" s="2"/>
     </row>
-    <row r="27" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N27" s="4"/>
       <c r="R27" s="2"/>
     </row>
-    <row r="28" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N28" s="4"/>
       <c r="R28" s="2"/>
     </row>
-    <row r="29" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N29" s="4"/>
       <c r="R29" s="2"/>
     </row>
-    <row r="30" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N30" s="4"/>
     </row>
-    <row r="31" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N32" s="4"/>
     </row>
-    <row r="33" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N33" s="4"/>
     </row>
-    <row r="34" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N34" s="4"/>
     </row>
-    <row r="35" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N35" s="4"/>
     </row>
-    <row r="36" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N36" s="4"/>
     </row>
-    <row r="37" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N37" s="4"/>
     </row>
-    <row r="38" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N38" s="4"/>
     </row>
-    <row r="39" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N39" s="4"/>
     </row>
-    <row r="40" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N40" s="4"/>
     </row>
-    <row r="41" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N41" s="4"/>
     </row>
-    <row r="42" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N42" s="4"/>
     </row>
-    <row r="43" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N43" s="4"/>
     </row>
   </sheetData>
@@ -46656,23 +44224,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E9CEA1-2D4C-47B3-A3B8-353AF1E17554}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="E23:F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="19.88671875" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" customWidth="1"/>
-    <col min="9" max="9" width="21.88671875" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" customWidth="1"/>
+    <col min="1" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -46704,7 +44272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -46739,7 +44307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
@@ -46773,7 +44341,7 @@
         <v>0.95319940982862339</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20</v>
       </c>
@@ -46807,7 +44375,7 @@
         <v>0.70583815684939277</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>30</v>
       </c>
@@ -46841,7 +44409,7 @@
         <v>0.963985926682556</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -46876,7 +44444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10</v>
       </c>
@@ -46910,7 +44478,7 @@
         <v>0.94321870389286122</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20</v>
       </c>
@@ -46944,7 +44512,7 @@
         <v>0.9584144818976279</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>30</v>
       </c>
@@ -46992,28 +44560,28 @@
       <selection activeCell="V7" sqref="A7:V47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" customWidth="1"/>
-    <col min="10" max="10" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5546875" customWidth="1"/>
-    <col min="13" max="13" width="22.109375" customWidth="1"/>
-    <col min="14" max="14" width="23.33203125" customWidth="1"/>
-    <col min="15" max="15" width="26.5546875" customWidth="1"/>
-    <col min="16" max="17" width="14.88671875" customWidth="1"/>
-    <col min="18" max="18" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.6640625" customWidth="1"/>
-    <col min="21" max="21" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" customWidth="1"/>
+    <col min="15" max="15" width="26.5703125" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" customWidth="1"/>
+    <col min="18" max="18" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" customWidth="1"/>
+    <col min="21" max="21" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -47081,7 +44649,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -47148,7 +44716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -47216,7 +44784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -47284,7 +44852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -47352,7 +44920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -47420,150 +44988,150 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N7" s="4"/>
       <c r="U7" s="3"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N8" s="4"/>
       <c r="U8" s="3"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N9" s="4"/>
       <c r="U9" s="3"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N10" s="4"/>
       <c r="U10" s="3"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N11" s="4"/>
       <c r="U11" s="3"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N12" s="4"/>
       <c r="U12" s="3"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N13" s="4"/>
       <c r="U13" s="3"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N14" s="4"/>
       <c r="U14" s="3"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N15" s="4"/>
       <c r="U15" s="3"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N16" s="4"/>
       <c r="R16" s="2"/>
       <c r="U16" s="3"/>
     </row>
-    <row r="17" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N17" s="4"/>
       <c r="R17" s="2"/>
       <c r="U17" s="3"/>
     </row>
-    <row r="18" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N18" s="4"/>
       <c r="R18" s="2"/>
       <c r="U18" s="3"/>
     </row>
-    <row r="19" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N19" s="4"/>
       <c r="R19" s="2"/>
       <c r="U19" s="3"/>
     </row>
-    <row r="20" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N20" s="4"/>
       <c r="R20" s="2"/>
       <c r="U20" s="3"/>
     </row>
-    <row r="21" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N21" s="4"/>
       <c r="R21" s="2"/>
       <c r="U21" s="3"/>
     </row>
-    <row r="22" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N22" s="4"/>
       <c r="R22" s="2"/>
       <c r="U22" s="3"/>
     </row>
-    <row r="23" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N23" s="4"/>
       <c r="R23" s="2"/>
       <c r="U23" s="3"/>
     </row>
-    <row r="24" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N24" s="4"/>
       <c r="R24" s="2"/>
       <c r="U24" s="3"/>
     </row>
-    <row r="25" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N25" s="4"/>
       <c r="R25" s="2"/>
       <c r="U25" s="3"/>
     </row>
-    <row r="26" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N26" s="4"/>
       <c r="R26" s="2"/>
       <c r="U26" s="3"/>
     </row>
-    <row r="27" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N27" s="4"/>
       <c r="R27" s="2"/>
       <c r="U27" s="3"/>
     </row>
-    <row r="28" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N28" s="4"/>
       <c r="R28" s="2"/>
     </row>
-    <row r="29" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N29" s="4"/>
       <c r="R29" s="2"/>
     </row>
-    <row r="30" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N30" s="4"/>
     </row>
-    <row r="31" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N32" s="4"/>
     </row>
-    <row r="33" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N33" s="4"/>
     </row>
-    <row r="34" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N34" s="4"/>
     </row>
-    <row r="35" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N35" s="4"/>
     </row>
-    <row r="36" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N36" s="4"/>
     </row>
-    <row r="37" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N37" s="4"/>
     </row>
-    <row r="38" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N38" s="4"/>
     </row>
-    <row r="39" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N39" s="4"/>
     </row>
-    <row r="40" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N40" s="4"/>
     </row>
-    <row r="41" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N41" s="4"/>
     </row>
-    <row r="42" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N42" s="4"/>
     </row>
-    <row r="43" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N43" s="4"/>
     </row>
   </sheetData>
@@ -47579,29 +45147,29 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="7" max="7" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" customWidth="1"/>
-    <col min="11" max="11" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5546875" customWidth="1"/>
-    <col min="14" max="14" width="22.109375" customWidth="1"/>
-    <col min="15" max="15" width="23.33203125" customWidth="1"/>
-    <col min="16" max="16" width="26.5546875" customWidth="1"/>
-    <col min="17" max="18" width="14.88671875" customWidth="1"/>
-    <col min="19" max="19" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.6640625" customWidth="1"/>
-    <col min="22" max="22" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" customWidth="1"/>
+    <col min="14" max="14" width="22.140625" customWidth="1"/>
+    <col min="15" max="15" width="23.28515625" customWidth="1"/>
+    <col min="16" max="16" width="26.5703125" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" customWidth="1"/>
+    <col min="19" max="19" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.7109375" customWidth="1"/>
+    <col min="22" max="22" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -47672,7 +45240,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -47742,7 +45310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -47812,7 +45380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -47882,7 +45450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -47952,7 +45520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -48022,94 +45590,94 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J36" s="5"/>
     </row>
   </sheetData>
@@ -48126,28 +45694,28 @@
       <selection activeCell="V7" sqref="A7:V48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" customWidth="1"/>
-    <col min="10" max="10" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5546875" customWidth="1"/>
-    <col min="13" max="13" width="22.109375" customWidth="1"/>
-    <col min="14" max="14" width="23.33203125" customWidth="1"/>
-    <col min="15" max="15" width="26.5546875" customWidth="1"/>
-    <col min="16" max="17" width="14.88671875" customWidth="1"/>
-    <col min="18" max="18" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.6640625" customWidth="1"/>
-    <col min="21" max="21" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" customWidth="1"/>
+    <col min="15" max="15" width="26.5703125" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" customWidth="1"/>
+    <col min="18" max="18" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" customWidth="1"/>
+    <col min="21" max="21" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -48215,7 +45783,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -48282,7 +45850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -48349,7 +45917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -48416,7 +45984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -48483,7 +46051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -48563,28 +46131,28 @@
       <selection activeCell="V7" sqref="A7:V87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" customWidth="1"/>
-    <col min="10" max="10" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5546875" customWidth="1"/>
-    <col min="13" max="13" width="22.109375" customWidth="1"/>
-    <col min="14" max="14" width="23.33203125" customWidth="1"/>
-    <col min="15" max="15" width="26.5546875" customWidth="1"/>
-    <col min="16" max="17" width="14.88671875" customWidth="1"/>
-    <col min="18" max="18" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.6640625" customWidth="1"/>
-    <col min="21" max="21" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" customWidth="1"/>
+    <col min="15" max="15" width="26.5703125" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" customWidth="1"/>
+    <col min="18" max="18" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" customWidth="1"/>
+    <col min="21" max="21" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -48652,7 +46220,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -48719,7 +46287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -48786,7 +46354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -48853,7 +46421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -48920,7 +46488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -49000,28 +46568,28 @@
       <selection activeCell="V7" sqref="A7:V54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" customWidth="1"/>
-    <col min="10" max="10" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5546875" customWidth="1"/>
-    <col min="13" max="13" width="22.109375" customWidth="1"/>
-    <col min="14" max="14" width="23.33203125" customWidth="1"/>
-    <col min="15" max="15" width="26.5546875" customWidth="1"/>
-    <col min="16" max="17" width="14.88671875" customWidth="1"/>
-    <col min="18" max="18" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.6640625" customWidth="1"/>
-    <col min="21" max="21" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" customWidth="1"/>
+    <col min="15" max="15" width="26.5703125" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" customWidth="1"/>
+    <col min="18" max="18" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" customWidth="1"/>
+    <col min="21" max="21" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -49089,7 +46657,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -49154,7 +46722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -49216,7 +46784,7 @@
         <v>0.99932694502899011</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -49278,7 +46846,7 @@
         <v>0.97482978872242765</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -49340,7 +46908,7 @@
         <v>0.97419822727153282</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -49402,85 +46970,85 @@
         <v>0.96225682850989802</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U7" s="3"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U8" s="3"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U9" s="3"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U10" s="3"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U11" s="3"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U12" s="3"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U13" s="3"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U14" s="3"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U15" s="3"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="R16" s="2"/>
       <c r="U16" s="3"/>
     </row>
-    <row r="17" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R17" s="2"/>
       <c r="U17" s="3"/>
     </row>
-    <row r="18" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R18" s="2"/>
       <c r="U18" s="3"/>
     </row>
-    <row r="19" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R19" s="2"/>
       <c r="U19" s="3"/>
     </row>
-    <row r="20" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R20" s="2"/>
       <c r="U20" s="3"/>
     </row>
-    <row r="21" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R21" s="2"/>
       <c r="U21" s="3"/>
     </row>
-    <row r="22" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R22" s="2"/>
       <c r="U22" s="3"/>
     </row>
-    <row r="23" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R23" s="2"/>
       <c r="U23" s="3"/>
     </row>
-    <row r="24" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R24" s="2"/>
       <c r="U24" s="3"/>
     </row>
-    <row r="25" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R25" s="2"/>
       <c r="U25" s="3"/>
     </row>
-    <row r="26" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R26" s="2"/>
       <c r="U26" s="3"/>
     </row>
-    <row r="27" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R27" s="2"/>
       <c r="U27" s="3"/>
     </row>
-    <row r="28" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R28" s="2"/>
     </row>
-    <row r="29" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R29" s="2"/>
     </row>
   </sheetData>
@@ -49496,28 +47064,28 @@
       <selection activeCell="V7" sqref="A7:V70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" customWidth="1"/>
-    <col min="10" max="10" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5546875" customWidth="1"/>
-    <col min="13" max="13" width="22.109375" customWidth="1"/>
-    <col min="14" max="14" width="23.33203125" customWidth="1"/>
-    <col min="15" max="15" width="26.5546875" customWidth="1"/>
-    <col min="16" max="17" width="14.88671875" customWidth="1"/>
-    <col min="18" max="18" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.6640625" customWidth="1"/>
-    <col min="21" max="21" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" customWidth="1"/>
+    <col min="15" max="15" width="26.5703125" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" customWidth="1"/>
+    <col min="18" max="18" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" customWidth="1"/>
+    <col min="21" max="21" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -49585,7 +47153,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -49655,7 +47223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -49725,7 +47293,7 @@
         <v>0.23808995619083251</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -49795,7 +47363,7 @@
         <v>0.13312056239183045</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -49865,7 +47433,7 @@
         <v>9.5193374147224979E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -49935,129 +47503,129 @@
         <v>8.1511078940386741E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N8" s="4"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N11" s="4"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N12" s="4"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N13" s="4"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N14" s="4"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N15" s="4"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N16" s="4"/>
       <c r="R16" s="2"/>
     </row>
-    <row r="17" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N17" s="4"/>
       <c r="R17" s="2"/>
     </row>
-    <row r="18" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N18" s="4"/>
       <c r="R18" s="2"/>
     </row>
-    <row r="19" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N19" s="4"/>
       <c r="R19" s="2"/>
     </row>
-    <row r="20" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N20" s="4"/>
       <c r="R20" s="2"/>
     </row>
-    <row r="21" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N21" s="4"/>
       <c r="R21" s="2"/>
     </row>
-    <row r="22" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N22" s="4"/>
       <c r="R22" s="2"/>
     </row>
-    <row r="23" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N23" s="4"/>
       <c r="R23" s="2"/>
     </row>
-    <row r="24" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N24" s="4"/>
       <c r="R24" s="2"/>
     </row>
-    <row r="25" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N25" s="4"/>
       <c r="R25" s="2"/>
     </row>
-    <row r="26" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N26" s="4"/>
       <c r="R26" s="2"/>
     </row>
-    <row r="27" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N27" s="4"/>
       <c r="R27" s="2"/>
     </row>
-    <row r="28" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N28" s="4"/>
       <c r="R28" s="2"/>
     </row>
-    <row r="29" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N29" s="4"/>
       <c r="R29" s="2"/>
     </row>
-    <row r="30" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N30" s="4"/>
     </row>
-    <row r="31" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="14:18" x14ac:dyDescent="0.25">
       <c r="N32" s="4"/>
     </row>
-    <row r="33" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N33" s="4"/>
     </row>
-    <row r="34" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N34" s="4"/>
     </row>
-    <row r="35" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N35" s="4"/>
     </row>
-    <row r="36" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N36" s="4"/>
     </row>
-    <row r="37" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N37" s="4"/>
     </row>
-    <row r="38" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N38" s="4"/>
     </row>
-    <row r="39" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N39" s="4"/>
     </row>
-    <row r="40" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N40" s="4"/>
     </row>
-    <row r="41" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N41" s="4"/>
     </row>
-    <row r="42" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N42" s="4"/>
     </row>
-    <row r="43" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N43" s="4"/>
     </row>
   </sheetData>
@@ -50073,28 +47641,28 @@
       <selection activeCell="V7" sqref="A7:V90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" customWidth="1"/>
-    <col min="10" max="10" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5546875" customWidth="1"/>
-    <col min="13" max="13" width="22.109375" customWidth="1"/>
-    <col min="14" max="14" width="23.33203125" customWidth="1"/>
-    <col min="15" max="15" width="26.5546875" customWidth="1"/>
-    <col min="16" max="17" width="14.88671875" customWidth="1"/>
-    <col min="18" max="18" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.6640625" customWidth="1"/>
-    <col min="21" max="21" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" customWidth="1"/>
+    <col min="15" max="15" width="26.5703125" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" customWidth="1"/>
+    <col min="18" max="18" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" customWidth="1"/>
+    <col min="21" max="21" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -50162,7 +47730,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -50229,7 +47797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -50297,7 +47865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -50365,7 +47933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -50433,7 +48001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -50501,85 +48069,85 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U7" s="3"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U8" s="3"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U9" s="3"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U10" s="3"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U11" s="3"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U12" s="3"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U13" s="3"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U14" s="3"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U15" s="3"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="R16" s="2"/>
       <c r="U16" s="3"/>
     </row>
-    <row r="17" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R17" s="2"/>
       <c r="U17" s="3"/>
     </row>
-    <row r="18" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R18" s="2"/>
       <c r="U18" s="3"/>
     </row>
-    <row r="19" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R19" s="2"/>
       <c r="U19" s="3"/>
     </row>
-    <row r="20" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R20" s="2"/>
       <c r="U20" s="3"/>
     </row>
-    <row r="21" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R21" s="2"/>
       <c r="U21" s="3"/>
     </row>
-    <row r="22" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R22" s="2"/>
       <c r="U22" s="3"/>
     </row>
-    <row r="23" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R23" s="2"/>
       <c r="U23" s="3"/>
     </row>
-    <row r="24" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R24" s="2"/>
       <c r="U24" s="3"/>
     </row>
-    <row r="25" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R25" s="2"/>
       <c r="U25" s="3"/>
     </row>
-    <row r="26" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R26" s="2"/>
       <c r="U26" s="3"/>
     </row>
-    <row r="27" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R27" s="2"/>
       <c r="U27" s="3"/>
     </row>
-    <row r="28" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R28" s="2"/>
     </row>
-    <row r="29" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R29" s="2"/>
     </row>
   </sheetData>
@@ -50595,29 +48163,29 @@
       <selection activeCell="V36" sqref="V36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="7" max="7" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" customWidth="1"/>
-    <col min="11" max="11" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5546875" customWidth="1"/>
-    <col min="14" max="14" width="22.109375" customWidth="1"/>
-    <col min="15" max="15" width="23.33203125" customWidth="1"/>
-    <col min="16" max="16" width="26.5546875" customWidth="1"/>
-    <col min="17" max="18" width="14.88671875" customWidth="1"/>
-    <col min="19" max="19" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.6640625" customWidth="1"/>
-    <col min="22" max="22" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" customWidth="1"/>
+    <col min="14" max="14" width="22.140625" customWidth="1"/>
+    <col min="15" max="15" width="23.28515625" customWidth="1"/>
+    <col min="16" max="16" width="26.5703125" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" customWidth="1"/>
+    <col min="19" max="19" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.7109375" customWidth="1"/>
+    <col min="22" max="22" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -50688,7 +48256,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -50758,7 +48326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -50828,7 +48396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -50898,7 +48466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -50968,7 +48536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -51038,94 +48606,94 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J36" s="5"/>
     </row>
   </sheetData>
@@ -51142,28 +48710,28 @@
       <selection activeCell="A43" sqref="A7:V43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" customWidth="1"/>
-    <col min="10" max="10" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5546875" customWidth="1"/>
-    <col min="13" max="13" width="22.109375" customWidth="1"/>
-    <col min="14" max="14" width="23.33203125" customWidth="1"/>
-    <col min="15" max="15" width="26.5546875" customWidth="1"/>
-    <col min="16" max="17" width="14.88671875" customWidth="1"/>
-    <col min="18" max="18" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.6640625" customWidth="1"/>
-    <col min="21" max="21" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" customWidth="1"/>
+    <col min="15" max="15" width="26.5703125" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" customWidth="1"/>
+    <col min="18" max="18" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" customWidth="1"/>
+    <col min="21" max="21" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -51231,7 +48799,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -51298,7 +48866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -51365,7 +48933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -51432,7 +49000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -51499,7 +49067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -51579,28 +49147,28 @@
       <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" customWidth="1"/>
-    <col min="10" max="10" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5546875" customWidth="1"/>
-    <col min="13" max="13" width="22.109375" customWidth="1"/>
-    <col min="14" max="14" width="23.33203125" customWidth="1"/>
-    <col min="15" max="15" width="26.5546875" customWidth="1"/>
-    <col min="16" max="17" width="14.88671875" customWidth="1"/>
-    <col min="18" max="18" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.6640625" customWidth="1"/>
-    <col min="21" max="21" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" customWidth="1"/>
+    <col min="15" max="15" width="26.5703125" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" customWidth="1"/>
+    <col min="18" max="18" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" customWidth="1"/>
+    <col min="21" max="21" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -51668,7 +49236,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -51735,7 +49303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -51802,7 +49370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -51869,7 +49437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -51936,7 +49504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -52016,20 +49584,20 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="19.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" customWidth="1"/>
-    <col min="6" max="6" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5546875" customWidth="1"/>
+    <col min="2" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" customWidth="1"/>
     <col min="9" max="9" width="27" customWidth="1"/>
-    <col min="10" max="11" width="20.33203125" customWidth="1"/>
-    <col min="12" max="12" width="21.88671875" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" customWidth="1"/>
+    <col min="10" max="11" width="20.28515625" customWidth="1"/>
+    <col min="12" max="12" width="21.85546875" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -52070,7 +49638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -52116,7 +49684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -52154,7 +49722,7 @@
         <v>0.86499999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -52199,7 +49767,7 @@
         <v>1.0030874785591766</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -52245,7 +49813,7 @@
         <v>0.67467124070897655</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -52291,7 +49859,7 @@
         <v>0.55574614065180106</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -52337,7 +49905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -52375,7 +49943,7 @@
         <v>0.86499999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -52420,7 +49988,7 @@
         <v>0.84619782732990279</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -52465,7 +50033,7 @@
         <v>0.8004574042309891</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -52511,7 +50079,7 @@
         <v>0.72041166380789023</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -52557,7 +50125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -52595,7 +50163,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -52640,7 +50208,7 @@
         <v>1.0650657518582047</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -52686,7 +50254,7 @@
         <v>0.90337335620354486</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -52732,7 +50300,7 @@
         <v>0.74328187535734702</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -52778,7 +50346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -52816,7 +50384,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -52861,7 +50429,7 @@
         <v>0.84962835906232126</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -52907,7 +50475,7 @@
         <v>0.86792452830188682</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -52967,30 +50535,30 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" customWidth="1"/>
-    <col min="11" max="11" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5546875" customWidth="1"/>
-    <col min="14" max="14" width="22.109375" customWidth="1"/>
-    <col min="15" max="15" width="23.33203125" customWidth="1"/>
-    <col min="16" max="16" width="26.5546875" customWidth="1"/>
-    <col min="17" max="18" width="14.88671875" customWidth="1"/>
-    <col min="19" max="19" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.6640625" customWidth="1"/>
-    <col min="22" max="22" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" customWidth="1"/>
+    <col min="14" max="14" width="22.140625" customWidth="1"/>
+    <col min="15" max="15" width="23.28515625" customWidth="1"/>
+    <col min="16" max="16" width="26.5703125" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" customWidth="1"/>
+    <col min="19" max="19" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.7109375" customWidth="1"/>
+    <col min="22" max="22" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -53061,7 +50629,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -53129,7 +50697,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -53197,7 +50765,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -53265,7 +50833,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -53333,7 +50901,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -53414,28 +50982,28 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" customWidth="1"/>
-    <col min="11" max="11" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5546875" customWidth="1"/>
-    <col min="14" max="14" width="22.109375" customWidth="1"/>
-    <col min="15" max="15" width="23.33203125" customWidth="1"/>
-    <col min="16" max="16" width="26.5546875" customWidth="1"/>
-    <col min="17" max="18" width="14.88671875" customWidth="1"/>
-    <col min="19" max="19" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.6640625" customWidth="1"/>
-    <col min="22" max="22" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" customWidth="1"/>
+    <col min="14" max="14" width="22.140625" customWidth="1"/>
+    <col min="15" max="15" width="23.28515625" customWidth="1"/>
+    <col min="16" max="16" width="26.5703125" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" customWidth="1"/>
+    <col min="19" max="19" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.7109375" customWidth="1"/>
+    <col min="22" max="22" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -53506,7 +51074,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -53571,7 +51139,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -53636,7 +51204,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -53701,7 +51269,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -53766,7 +51334,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -53845,28 +51413,28 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" customWidth="1"/>
-    <col min="12" max="12" width="22.109375" customWidth="1"/>
-    <col min="13" max="13" width="23.33203125" customWidth="1"/>
-    <col min="14" max="14" width="26.5546875" customWidth="1"/>
-    <col min="15" max="16" width="14.88671875" customWidth="1"/>
-    <col min="17" max="17" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.6640625" customWidth="1"/>
-    <col min="20" max="20" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" customWidth="1"/>
+    <col min="13" max="13" width="23.28515625" customWidth="1"/>
+    <col min="14" max="14" width="26.5703125" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" customWidth="1"/>
+    <col min="17" max="17" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" customWidth="1"/>
+    <col min="20" max="20" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -53937,7 +51505,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -54002,7 +51570,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -54067,7 +51635,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -54132,7 +51700,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -54197,7 +51765,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -54275,30 +51843,30 @@
       <selection activeCell="B2" sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" customWidth="1"/>
-    <col min="11" max="11" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5546875" customWidth="1"/>
-    <col min="14" max="14" width="22.109375" customWidth="1"/>
-    <col min="15" max="15" width="23.33203125" customWidth="1"/>
-    <col min="16" max="16" width="26.5546875" customWidth="1"/>
-    <col min="17" max="18" width="14.88671875" customWidth="1"/>
-    <col min="19" max="19" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.6640625" customWidth="1"/>
-    <col min="22" max="22" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" customWidth="1"/>
+    <col min="14" max="14" width="22.140625" customWidth="1"/>
+    <col min="15" max="15" width="23.28515625" customWidth="1"/>
+    <col min="16" max="16" width="26.5703125" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" customWidth="1"/>
+    <col min="19" max="19" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.7109375" customWidth="1"/>
+    <col min="22" max="22" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -54369,7 +51937,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -54434,7 +52002,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -54499,7 +52067,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -54564,7 +52132,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -54629,7 +52197,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -54707,28 +52275,28 @@
       <selection activeCell="B2" sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" customWidth="1"/>
-    <col min="12" max="12" width="22.109375" customWidth="1"/>
-    <col min="13" max="13" width="23.33203125" customWidth="1"/>
-    <col min="14" max="14" width="26.5546875" customWidth="1"/>
-    <col min="15" max="16" width="14.88671875" customWidth="1"/>
-    <col min="17" max="17" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.6640625" customWidth="1"/>
-    <col min="20" max="20" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" customWidth="1"/>
+    <col min="13" max="13" width="23.28515625" customWidth="1"/>
+    <col min="14" max="14" width="26.5703125" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" customWidth="1"/>
+    <col min="17" max="17" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" customWidth="1"/>
+    <col min="20" max="20" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -54799,7 +52367,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -54864,7 +52432,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -54929,7 +52497,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -54994,7 +52562,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -55059,7 +52627,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -55137,20 +52705,20 @@
       <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="19.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" customWidth="1"/>
-    <col min="6" max="6" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5546875" customWidth="1"/>
+    <col min="2" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" customWidth="1"/>
     <col min="9" max="9" width="27" customWidth="1"/>
-    <col min="10" max="11" width="20.33203125" customWidth="1"/>
-    <col min="12" max="12" width="21.88671875" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" customWidth="1"/>
+    <col min="10" max="11" width="20.28515625" customWidth="1"/>
+    <col min="12" max="12" width="21.85546875" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -55191,7 +52759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -55237,7 +52805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -55282,7 +52850,7 @@
         <v>3.6893203883495145E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -55320,7 +52888,7 @@
         <v>0.55500000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -55365,7 +52933,7 @@
         <v>7.4682598954443615E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -55411,7 +52979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -55456,7 +53024,7 @@
         <v>4.0477968633308437E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -55494,7 +53062,7 @@
         <v>0.55500000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -55539,7 +53107,7 @@
         <v>1.0306198655713219E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -55585,7 +53153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -55630,7 +53198,7 @@
         <v>0.49917849141150111</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -55668,7 +53236,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -55713,7 +53281,7 @@
         <v>0.74324122479462285</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -55759,7 +53327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -55804,7 +53372,7 @@
         <v>0.50186706497386113</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -55842,7 +53410,7 @@
         <v>0.90500000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -55901,20 +53469,20 @@
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="19.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" customWidth="1"/>
-    <col min="6" max="6" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5546875" customWidth="1"/>
+    <col min="2" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" customWidth="1"/>
     <col min="9" max="9" width="27" customWidth="1"/>
-    <col min="10" max="11" width="20.33203125" customWidth="1"/>
-    <col min="12" max="12" width="21.88671875" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" customWidth="1"/>
+    <col min="10" max="11" width="20.28515625" customWidth="1"/>
+    <col min="12" max="12" width="21.85546875" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -55955,7 +53523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -55991,7 +53559,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -56027,7 +53595,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -56059,7 +53627,7 @@
         <v>0.61783439490445846</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -56095,7 +53663,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -56131,7 +53699,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -56167,7 +53735,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -56199,7 +53767,7 @@
         <v>0.41401273885350315</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -56235,7 +53803,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -56271,7 +53839,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -56303,7 +53871,7 @@
         <v>0.98089171974522293</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -56339,7 +53907,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -56375,7 +53943,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -56411,7 +53979,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -56457,21 +54025,21 @@
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="19.88671875" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1"/>
-    <col min="7" max="7" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5546875" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="12" width="20.33203125" customWidth="1"/>
-    <col min="13" max="13" width="21.88671875" customWidth="1"/>
-    <col min="14" max="14" width="18.6640625" customWidth="1"/>
+    <col min="11" max="12" width="20.28515625" customWidth="1"/>
+    <col min="13" max="13" width="21.85546875" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -56527,7 +54095,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -56563,7 +54131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -56599,7 +54167,7 @@
         <v>0.91874999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -56635,7 +54203,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -56671,7 +54239,7 @@
         <v>0.35000000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -56707,7 +54275,7 @@
         <v>0.16250000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -56743,7 +54311,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -56774,7 +54342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -56804,7 +54372,7 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -56834,7 +54402,7 @@
         <v>0.37037037037037041</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -56864,7 +54432,7 @@
         <v>0.1851851851851852</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -56894,7 +54462,7 @@
         <v>8.6419753086419748E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -56924,7 +54492,7 @@
         <v>3.0864197530864199E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -56966,7 +54534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -57007,7 +54575,7 @@
         <v>0.7508765219608593</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -57048,7 +54616,7 @@
         <v>0.82484435094876862</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -57089,7 +54657,7 @@
         <v>0.78427997705106134</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -57130,7 +54698,7 @@
         <v>0.44567688744395573</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -57171,7 +54739,7 @@
         <v>0.50687405707486033</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -57214,7 +54782,7 @@
         <v>2.5633051009014407</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3</v>
       </c>
@@ -57256,7 +54824,7 @@
         <v>1.9247256188894033</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -57298,7 +54866,7 @@
         <v>2.1143277322367169</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
@@ -57340,7 +54908,7 @@
         <v>2.0103488657098505</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
@@ -57382,7 +54950,7 @@
         <v>1.1424058389389689</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -57424,7 +54992,7 @@
         <v>1.2992728560145974</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4</v>
       </c>
@@ -57463,7 +55031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4</v>
       </c>
@@ -57501,7 +55069,7 @@
         <v>1.473624009368447</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4</v>
       </c>
@@ -57539,7 +55107,7 @@
         <v>1.7453362019662846</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
@@ -57577,7 +55145,7 @@
         <v>1.1093711702388409</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4</v>
       </c>
@@ -57615,7 +55183,7 @@
         <v>1.0088782374247665</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4</v>
       </c>
@@ -57667,18 +55235,18 @@
       <selection activeCell="K19" sqref="A1:K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="8" max="8" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" customWidth="1"/>
-    <col min="11" max="11" width="17.88671875" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -57713,7 +55281,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -57750,7 +55318,7 @@
         <v>0.70847525244351772</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -57787,7 +55355,7 @@
         <v>0.53197743345013038</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -57824,7 +55392,7 @@
         <v>0.5843818097650384</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
@@ -57861,7 +55429,7 @@
         <v>0.55564295472764702</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8</v>
       </c>
@@ -57898,7 +55466,7 @@
         <v>0.31575104534009779</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10</v>
       </c>
@@ -57935,7 +55503,7 @@
         <v>0.35910772554318166</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -57968,7 +55536,7 @@
         <v>9589</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -58005,7 +55573,7 @@
         <v>0.47876011938141461</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -58042,7 +55610,7 @@
         <v>0.40914856061090765</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
@@ -58079,7 +55647,7 @@
         <v>0.3482685554924107</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -58116,7 +55684,7 @@
         <v>0.31575104534009779</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -58149,7 +55717,7 @@
         <v>4967</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -58187,7 +55755,7 @@
         <v>0.51053243659273695</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -58225,7 +55793,7 @@
         <v>0.41979202342465083</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
@@ -58259,7 +55827,7 @@
         <v>46136.25</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6</v>
       </c>
@@ -58297,7 +55865,7 @@
         <v>0.33121568066600676</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>8</v>
       </c>
@@ -58335,7 +55903,7 @@
         <v>0.30242413521864636</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10</v>
       </c>
@@ -58387,21 +55955,21 @@
       <selection activeCell="O1" sqref="O1:R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" customWidth="1"/>
-    <col min="13" max="13" width="16.88671875" customWidth="1"/>
-    <col min="14" max="14" width="14.88671875" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -58457,7 +56025,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -58498,7 +56066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.43</v>
       </c>
@@ -58536,7 +56104,7 @@
         <v>0.65583292140385563</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.66</v>
       </c>
@@ -58574,7 +56142,7 @@
         <v>0.47009391992090954</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -58612,7 +56180,7 @@
         <v>0.26297577854671284</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1.33</v>
       </c>
@@ -58650,7 +56218,7 @@
         <v>0.13914977755808206</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1.76</v>
       </c>
@@ -58688,7 +56256,7 @@
         <v>3.9050914483440433E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -58726,7 +56294,7 @@
         <v>3.7753336628769153E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -58764,7 +56332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -58802,7 +56370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -58840,7 +56408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -58878,7 +56446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -58919,7 +56487,7 @@
         <v>1.0053422785439186</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.43</v>
       </c>
@@ -58957,7 +56525,7 @@
         <v>0.61411355447881733</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.66</v>
       </c>
@@ -58995,7 +56563,7 @@
         <v>0.4850291961734377</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -59033,7 +56601,7 @@
         <v>0.31183998012175429</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1.33</v>
       </c>
@@ -59071,7 +56639,7 @@
         <v>0.15032923344514848</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1.76</v>
       </c>
@@ -59109,7 +56677,7 @@
         <v>5.6653000372717109E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -59147,7 +56715,7 @@
         <v>3.9135296310100633E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4</v>
       </c>
@@ -59185,7 +56753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>6</v>
       </c>
@@ -59223,7 +56791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>8</v>
       </c>
@@ -59261,7 +56829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10</v>
       </c>
@@ -59313,22 +56881,22 @@
       <selection activeCell="O1" sqref="O1:R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" customWidth="1"/>
-    <col min="13" max="13" width="22.44140625" customWidth="1"/>
-    <col min="14" max="14" width="14.88671875" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="22.42578125" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -59384,7 +56952,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -59425,7 +56993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -59466,7 +57034,7 @@
         <v>1.0002556890820762</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -59507,7 +57075,7 @@
         <v>0.78828944004091017</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20</v>
       </c>
@@ -59548,7 +57116,7 @@
         <v>0.59422142674507794</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>30</v>
       </c>
@@ -59589,7 +57157,7 @@
         <v>0.29813346970084376</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -59619,7 +57187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -59649,7 +57217,7 @@
         <v>1.0821559392987965</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10</v>
       </c>
@@ -59679,7 +57247,7 @@
         <v>0.83150183150183155</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20</v>
       </c>
@@ -59709,7 +57277,7 @@
         <v>0.59863945578231292</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>30</v>
       </c>
@@ -59739,7 +57307,7 @@
         <v>0.23731030873888018</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -59780,7 +57348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5</v>
       </c>
@@ -59821,7 +57389,7 @@
         <v>0.87387008618877449</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
@@ -59862,7 +57430,7 @@
         <v>0.81311751103636742</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20</v>
       </c>
@@ -59903,7 +57471,7 @@
         <v>0.58082825310069364</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>30</v>
       </c>
@@ -59944,7 +57512,7 @@
         <v>0.49106579777170484</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -59974,7 +57542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5</v>
       </c>
@@ -60004,7 +57572,7 @@
         <v>0.86530172413793105</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10</v>
       </c>
@@ -60034,7 +57602,7 @@
         <v>0.74407327586206895</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -60064,7 +57632,7 @@
         <v>0.5001795977011495</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>30</v>
       </c>
